--- a/documents/Plan/DetailPlan_11122012.xlsx
+++ b/documents/Plan/DetailPlan_11122012.xlsx
@@ -1749,17 +1749,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH559"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E210"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="1" max="5" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2018,7 +2014,7 @@
       </c>
       <c r="E16" s="52"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>156</v>
       </c>
@@ -2035,7 +2031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>233</v>
       </c>
@@ -2050,7 +2046,7 @@
       </c>
       <c r="E18" s="48"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>52</v>
       </c>
@@ -2067,7 +2063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>53</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>54</v>
       </c>
@@ -2101,7 +2097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>55</v>
       </c>
@@ -2118,7 +2114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>57</v>
       </c>
@@ -2189,7 +2185,7 @@
       </c>
       <c r="E27" s="52"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>62</v>
       </c>
@@ -2206,7 +2202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>75</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>76</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>77</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>78</v>
       </c>
@@ -2291,7 +2287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
         <v>79</v>
       </c>
@@ -2308,7 +2304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>159</v>
       </c>
@@ -2325,7 +2321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>80</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>81</v>
       </c>
@@ -2359,7 +2355,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>82</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>83</v>
       </c>
@@ -2393,7 +2389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>84</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>85</v>
       </c>
@@ -2427,7 +2423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>86</v>
       </c>
@@ -2444,7 +2440,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>87</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>160</v>
       </c>
@@ -2495,7 +2491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>89</v>
       </c>
@@ -2529,7 +2525,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>212</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>215</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>222</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>221</v>
       </c>
@@ -2597,7 +2593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>216</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>213</v>
       </c>
@@ -2631,7 +2627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>217</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>218</v>
       </c>
@@ -2665,7 +2661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>219</v>
       </c>
@@ -2682,7 +2678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>220</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>223</v>
       </c>
@@ -2716,7 +2712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>90</v>
       </c>
@@ -2731,7 +2727,7 @@
       </c>
       <c r="E59" s="54"/>
     </row>
-    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>91</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>157</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>93</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>158</v>
       </c>
@@ -2816,7 +2812,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="47" t="s">
         <v>94</v>
       </c>
@@ -2833,7 +2829,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>95</v>
       </c>
@@ -2850,7 +2846,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>96</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>102</v>
       </c>
@@ -2986,7 +2982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>224</v>
       </c>
@@ -3003,7 +2999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>225</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>226</v>
       </c>
@@ -3037,7 +3033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>227</v>
       </c>
@@ -3054,7 +3050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
         <v>228</v>
       </c>
@@ -3071,7 +3067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>104</v>
       </c>
@@ -3088,7 +3084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>114</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>115</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>118</v>
       </c>
@@ -3190,7 +3186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>236</v>
       </c>
@@ -3207,7 +3203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
         <v>237</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>238</v>
       </c>
@@ -3241,7 +3237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>239</v>
       </c>
@@ -3258,7 +3254,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>240</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>242</v>
       </c>
@@ -3292,7 +3288,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="58" t="s">
         <v>243</v>
       </c>
@@ -3309,7 +3305,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>241</v>
       </c>
@@ -3341,7 +3337,7 @@
       </c>
       <c r="E95" s="51"/>
     </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="47" t="s">
         <v>123</v>
       </c>
@@ -3375,7 +3371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>165</v>
       </c>
@@ -3392,7 +3388,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>164</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>129</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>130</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>131</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>231</v>
       </c>
@@ -3494,7 +3490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>235</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>150</v>
       </c>
@@ -3545,7 +3541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>124</v>
       </c>
@@ -3562,7 +3558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>167</v>
       </c>
@@ -3579,7 +3575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>278</v>
       </c>
@@ -3613,7 +3609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>279</v>
       </c>
@@ -3630,7 +3626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="54" t="s">
         <v>134</v>
       </c>
@@ -3647,7 +3643,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>135</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
         <v>247</v>
       </c>
@@ -3681,7 +3677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>137</v>
       </c>
@@ -3698,7 +3694,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>248</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
         <v>145</v>
       </c>
@@ -3732,7 +3728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>146</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
         <v>147</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A123" s="59" t="s">
         <v>280</v>
       </c>
@@ -3817,7 +3813,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
         <v>149</v>
       </c>
@@ -3849,7 +3845,7 @@
       </c>
       <c r="E125" s="51"/>
     </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>123</v>
       </c>
@@ -3866,7 +3862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>169</v>
       </c>
@@ -3883,7 +3879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>170</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>132</v>
       </c>
@@ -4009,7 +4005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
         <v>133</v>
       </c>
@@ -4063,7 +4059,7 @@
       <c r="X135" s="16"/>
       <c r="Y135" s="17"/>
     </row>
-    <row r="136" spans="1:29" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A136" s="59" t="s">
         <v>134</v>
       </c>
@@ -4100,7 +4096,7 @@
       <c r="X136" s="29"/>
       <c r="Y136" s="29"/>
     </row>
-    <row r="137" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
         <v>155</v>
       </c>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="F137" s="14"/>
     </row>
-    <row r="138" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>136</v>
       </c>
@@ -4136,7 +4132,7 @@
       </c>
       <c r="F138" s="14"/>
     </row>
-    <row r="139" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
         <v>137</v>
       </c>
@@ -4154,7 +4150,7 @@
       </c>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>153</v>
       </c>
@@ -4172,7 +4168,7 @@
       </c>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>126</v>
       </c>
@@ -4208,7 +4204,7 @@
       </c>
       <c r="F142" s="14"/>
     </row>
-    <row r="143" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="47" t="s">
         <v>128</v>
       </c>
@@ -4226,7 +4222,7 @@
       </c>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="1:29" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A144" s="59" t="s">
         <v>254</v>
       </c>
@@ -4244,7 +4240,7 @@
       </c>
       <c r="F144" s="27"/>
     </row>
-    <row r="145" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
         <v>255</v>
       </c>
@@ -4262,7 +4258,7 @@
       </c>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>161</v>
       </c>
@@ -4295,7 +4291,7 @@
       </c>
       <c r="E147" s="51"/>
     </row>
-    <row r="148" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
         <v>175</v>
       </c>
@@ -4312,7 +4308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>176</v>
       </c>
@@ -4329,7 +4325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>178</v>
       </c>
@@ -4346,7 +4342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
         <v>179</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="47" t="s">
         <v>180</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>271</v>
       </c>
@@ -4397,7 +4393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="47" t="s">
         <v>272</v>
       </c>
@@ -4451,7 +4447,7 @@
       <c r="X155" s="16"/>
       <c r="Y155" s="17"/>
     </row>
-    <row r="156" spans="1:25" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="54" t="s">
         <v>184</v>
       </c>
@@ -4488,7 +4484,7 @@
       <c r="X156" s="18"/>
       <c r="Y156" s="18"/>
     </row>
-    <row r="157" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>193</v>
       </c>
@@ -4542,7 +4538,7 @@
       </c>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>187</v>
       </c>
@@ -4560,7 +4556,7 @@
       </c>
       <c r="F160" s="14"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>188</v>
       </c>
@@ -4596,7 +4592,7 @@
       </c>
       <c r="F162" s="14"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>190</v>
       </c>
@@ -4614,7 +4610,7 @@
       </c>
       <c r="F163" s="14"/>
     </row>
-    <row r="164" spans="1:7" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="59" t="s">
         <v>260</v>
       </c>
@@ -4632,7 +4628,7 @@
       </c>
       <c r="F164" s="27"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>261</v>
       </c>
@@ -4799,7 +4795,7 @@
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="47" t="s">
         <v>290</v>
       </c>
@@ -4835,7 +4831,7 @@
       </c>
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>293</v>
       </c>
@@ -5517,7 +5513,7 @@
         <v>72</v>
       </c>
       <c r="C209" s="58" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D209" s="58" t="s">
         <v>321</v>
@@ -5536,10 +5532,10 @@
         <v>72</v>
       </c>
       <c r="C210" s="58" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D210" s="58" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E210" s="58" t="s">
         <v>112</v>
